--- a/Day-06.04/Функции с проверкой условий.xlsx
+++ b/Day-06.04/Функции с проверкой условий.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Denis\Desktop\083_\Day-06.04\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2A56086-D7C3-404F-879A-1D9F35F64AA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C950548F-5CFA-4B72-A1C8-CC9F6FB3B3CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="914" activeTab="6" xr2:uid="{986EFDD9-458B-4E53-B61D-F99A97C749EF}"/>
+    <workbookView xWindow="34665" yWindow="600" windowWidth="21255" windowHeight="15165" tabRatio="914" activeTab="7" xr2:uid="{986EFDD9-458B-4E53-B61D-F99A97C749EF}"/>
   </bookViews>
   <sheets>
     <sheet name="условия " sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="проверка неск усл + впр" sheetId="15" r:id="rId5"/>
     <sheet name="ВПР " sheetId="16" r:id="rId6"/>
     <sheet name="если И" sheetId="17" r:id="rId7"/>
+    <sheet name="ИЛИ" sheetId="18" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="106">
   <si>
     <t>=3 &gt; 5</t>
   </si>
@@ -282,9 +283,6 @@
     <t>201-FIN-1452</t>
   </si>
   <si>
-    <t>202-FIN-8206</t>
-  </si>
-  <si>
     <t>201-FIN-8238</t>
   </si>
   <si>
@@ -334,6 +332,24 @@
   </si>
   <si>
     <t>203-SUB-8304</t>
+  </si>
+  <si>
+    <t>Статус изделия</t>
+  </si>
+  <si>
+    <t>Номер сотрудника</t>
+  </si>
+  <si>
+    <t>скидка 10%, если только номер сотрудника 202 И изделие готово (FIN)</t>
+  </si>
+  <si>
+    <t>202-FIN-7937</t>
+  </si>
+  <si>
+    <t>Скидка 10% если номер сотрудника 202 или 203</t>
+  </si>
+  <si>
+    <t>примените скидку 10% только если номер сотрудника 202 ИЛИ 203 И статусизделия FIN </t>
   </si>
 </sst>
 </file>
@@ -345,7 +361,7 @@
     <numFmt numFmtId="164" formatCode="[$-419]mmmm\ yyyy;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,6 +449,13 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4E5A66"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -994,7 +1017,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1152,21 +1175,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1203,20 +1211,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1225,12 +1221,53 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Гиперссылка" xfId="4" builtinId="8"/>
@@ -1601,8 +1638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63106485-A7CA-4345-A8F5-58DDCE7D768C}">
   <dimension ref="B2:I14"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1756,12 +1793,12 @@
     </row>
     <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="63"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="80"/>
       <c r="H10" s="33">
         <f>COUNTBLANK(C4:F4) + COUNTBLANK(C7:F7)</f>
         <v>4</v>
@@ -2127,15 +2164,15 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="65"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="82"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -2719,7 +2756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{148BA453-50A4-45E3-933E-4D589EE6409B}">
   <dimension ref="B1:H20"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -2733,7 +2770,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B1" s="83">
+      <c r="B1" s="74">
         <v>5</v>
       </c>
       <c r="C1" t="s">
@@ -2744,51 +2781,51 @@
       </c>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
     </row>
     <row r="4" spans="2:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="71" t="s">
         <v>57</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="71" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="G4" s="77" t="s">
+      <c r="G4" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="78"/>
+      <c r="H4" s="73"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="66">
+      <c r="B5" s="61">
         <v>1</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="67">
+      <c r="D5" s="62">
         <v>894654</v>
       </c>
-      <c r="E5" s="68" t="s">
+      <c r="E5" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="69">
+      <c r="G5" s="64">
         <v>56465</v>
       </c>
     </row>
@@ -2802,7 +2839,7 @@
       <c r="D6" s="15">
         <v>54657</v>
       </c>
-      <c r="E6" s="70" t="s">
+      <c r="E6" s="65" t="s">
         <v>62</v>
       </c>
       <c r="F6" s="15" t="s">
@@ -2822,7 +2859,7 @@
       <c r="D7" s="15">
         <v>54654</v>
       </c>
-      <c r="E7" s="70" t="s">
+      <c r="E7" s="65" t="s">
         <v>63</v>
       </c>
       <c r="F7" s="15" t="s">
@@ -2842,7 +2879,7 @@
       <c r="D8" s="15">
         <v>1235</v>
       </c>
-      <c r="E8" s="70" t="s">
+      <c r="E8" s="65" t="s">
         <v>64</v>
       </c>
       <c r="F8" s="15" t="s">
@@ -2862,7 +2899,7 @@
       <c r="D9" s="15">
         <v>44466</v>
       </c>
-      <c r="E9" s="70" t="s">
+      <c r="E9" s="65" t="s">
         <v>65</v>
       </c>
       <c r="F9" s="15" t="s">
@@ -2873,58 +2910,58 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="71">
+      <c r="B10" s="66">
         <v>6</v>
       </c>
-      <c r="C10" s="72" t="s">
+      <c r="C10" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="72">
+      <c r="D10" s="67">
         <v>456478</v>
       </c>
-      <c r="E10" s="73" t="s">
+      <c r="E10" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="F10" s="72" t="s">
+      <c r="F10" s="67" t="s">
         <v>72</v>
       </c>
-      <c r="G10" s="74">
+      <c r="G10" s="69">
         <v>44687</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="80" t="s">
+      <c r="D14" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="82"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="86"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D15" s="79" t="s">
+      <c r="D15" s="83" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D16" s="84" t="str">
+      <c r="D16" s="75" t="str">
         <f>VLOOKUP(B1,B5:G10,5)</f>
         <v>Бухгалтер</v>
       </c>
     </row>
     <row r="17" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D17" s="86" t="s">
+      <c r="D17" s="87" t="s">
         <v>76</v>
       </c>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
     </row>
     <row r="18" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D18" s="84" t="str">
+      <c r="D18" s="75" t="str">
         <f>VLOOKUP(C1,C5:G10,4,FALSE)</f>
         <v>Дворник</v>
       </c>
@@ -2935,7 +2972,7 @@
       </c>
     </row>
     <row r="20" spans="4:7" x14ac:dyDescent="0.25">
-      <c r="D20" s="87">
+      <c r="D20" s="77">
         <f>VLOOKUP(D1,D5:G10,4,FALSE)</f>
         <v>24657</v>
       </c>
@@ -2962,10 +2999,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD1D0ED2-82BD-4281-B0F8-C49857022AD7}">
-  <dimension ref="B1:D22"/>
+  <dimension ref="B1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2973,122 +3010,437 @@
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-    </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="88" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+    </row>
+    <row r="2" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>78</v>
       </c>
       <c r="C2" t="s">
         <v>79</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="89" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="74" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="74" t="s">
+        <v>100</v>
+      </c>
+      <c r="H2" t="b">
+        <f>AND(6&gt;1,3&lt;6)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>74</v>
+      </c>
+      <c r="D3" s="91">
+        <f>IF(AND(LEFT(B3,3)="202",MID(B3,5,3)="FIN"),10%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="74" t="str">
+        <f>LEFT(B3,3)</f>
+        <v>202</v>
+      </c>
+      <c r="F3" s="74" t="str">
+        <f>MID(B3,5,3)</f>
+        <v>PRT</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <v>54</v>
+      </c>
+      <c r="D4" s="91">
+        <f t="shared" ref="D4:D22" si="0">IF(AND(LEFT(B4,3)="202",MID(B4,5,3)="FIN"),10%,0)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="74" t="str">
+        <f t="shared" ref="E4:E22" si="1">LEFT(B4,3)</f>
+        <v>201</v>
+      </c>
+      <c r="F4" s="74" t="str">
+        <f t="shared" ref="F4:F22" si="2">MID(B4,5,3)</f>
+        <v>FIN</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5">
+        <v>45</v>
+      </c>
+      <c r="D5" s="91">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>202</v>
+      </c>
+      <c r="F5" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>FIN</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="C6">
+        <v>68</v>
+      </c>
+      <c r="D6" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>201</v>
+      </c>
+      <c r="F6" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>FIN</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="C7">
+        <v>64</v>
+      </c>
+      <c r="D7" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>203</v>
+      </c>
+      <c r="F7" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>FIN</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="C8">
+        <v>78</v>
+      </c>
+      <c r="D8" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E8" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>202</v>
+      </c>
+      <c r="F8" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>PRT</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="C9">
+        <v>63</v>
+      </c>
+      <c r="D9" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>203</v>
+      </c>
+      <c r="F9" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>FIN</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>201</v>
+      </c>
+      <c r="F10" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>PRT</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>202</v>
+      </c>
+      <c r="F11" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>SUB</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="C12">
+        <v>67</v>
+      </c>
+      <c r="D12" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>201</v>
+      </c>
+      <c r="F12" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>SUB</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="C13">
+        <v>57</v>
+      </c>
+      <c r="D13" s="91">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>202</v>
+      </c>
+      <c r="F13" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>FIN</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="C14">
+        <v>45</v>
+      </c>
+      <c r="D14" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E14" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>202</v>
+      </c>
+      <c r="F14" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>PRT</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>201</v>
+      </c>
+      <c r="F15" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>SUB</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="C16">
+        <v>245</v>
+      </c>
+      <c r="D16" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>203</v>
+      </c>
+      <c r="F16" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>SUB</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="C17">
+        <v>21</v>
+      </c>
+      <c r="D17" s="91">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>202</v>
+      </c>
+      <c r="F17" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>FIN</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="C18">
+        <v>245</v>
+      </c>
+      <c r="D18" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E18" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>203</v>
+      </c>
+      <c r="F18" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>SUB</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>203</v>
+      </c>
+      <c r="F19" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>PRT</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="C20">
+        <v>45</v>
+      </c>
+      <c r="D20" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>201</v>
+      </c>
+      <c r="F20" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>SUB</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="C21">
+        <v>45</v>
+      </c>
+      <c r="D21" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E21" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>203</v>
+      </c>
+      <c r="F21" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>FIN</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>100</v>
+      <c r="C22">
+        <v>45</v>
+      </c>
+      <c r="D22" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E22" s="74" t="str">
+        <f t="shared" si="1"/>
+        <v>203</v>
+      </c>
+      <c r="F22" s="74" t="str">
+        <f t="shared" si="2"/>
+        <v>SUB</v>
       </c>
     </row>
   </sheetData>
@@ -3097,4 +3449,370 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49B5236-5A7A-4234-AB92-D4A3D37CD941}">
+  <dimension ref="B1:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="88" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="88"/>
+      <c r="E1" s="93" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="92" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="89" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3">
+        <v>74</v>
+      </c>
+      <c r="D3" s="91">
+        <f>IF( OR(LEFT(B3,3)="202", LEFT(B3,3)="203"), 10%, 0 )</f>
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="90" t="str">
+        <f>IF(AND(OR(LEFT(B3,3)="202",LEFT(B3,3)="203"),MID(B3,5,3)="FIN"),"10%","0")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4">
+        <v>54</v>
+      </c>
+      <c r="D4" s="91">
+        <f t="shared" ref="D4:D22" si="0">IF( OR(LEFT(B4,3)="202", LEFT(B4,3)="203"), 10%, 0 )</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="90" t="str">
+        <f t="shared" ref="E4:E22" si="1">IF(AND(OR(LEFT(B4,3)="202",LEFT(B4,3)="203"),MID(B4,5,3)="FIN"),"10%","0")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5">
+        <v>45</v>
+      </c>
+      <c r="D5" s="91">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="90" t="str">
+        <f t="shared" si="1"/>
+        <v>10%</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6">
+        <v>68</v>
+      </c>
+      <c r="D6" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="90" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7">
+        <v>64</v>
+      </c>
+      <c r="D7" s="91">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="90" t="str">
+        <f t="shared" si="1"/>
+        <v>10%</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8">
+        <v>78</v>
+      </c>
+      <c r="D8" s="91">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="90" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9">
+        <v>63</v>
+      </c>
+      <c r="D9" s="91">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="90" t="str">
+        <f t="shared" si="1"/>
+        <v>10%</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="90" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11" s="91">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="90" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12">
+        <v>67</v>
+      </c>
+      <c r="D12" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E12" s="90" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13">
+        <v>57</v>
+      </c>
+      <c r="D13" s="91">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="90" t="str">
+        <f t="shared" si="1"/>
+        <v>10%</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14">
+        <v>45</v>
+      </c>
+      <c r="D14" s="91">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="90" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E15" s="90" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16">
+        <v>245</v>
+      </c>
+      <c r="D16" s="91">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="90" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17">
+        <v>21</v>
+      </c>
+      <c r="D17" s="91">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="90" t="str">
+        <f t="shared" si="1"/>
+        <v>10%</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18">
+        <v>245</v>
+      </c>
+      <c r="D18" s="91">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="90" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" s="91">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="E19" s="90" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20">
+        <v>45</v>
+      </c>
+      <c r="D20" s="91">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E20" s="90" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21">
+        <v>45</v>
+      </c>
+      <c r="D21" s="91">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="E21" s="90" t="str">
+        <f t="shared" si="1"/>
+        <v>10%</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22">
+        <v>45</v>
+      </c>
+      <c r="D22" s="91">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="E22" s="90" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>